--- a/data/next_keyboard.xlsx
+++ b/data/next_keyboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omzn/Dropbox/git/next_keyboard_v2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE06A5FD-E20F-C648-8EB8-5567D7C501C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1886D2-E72C-8D4F-A565-758DE5C282E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{39162797-455C-D146-9F8E-5DE726948B5C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="225">
   <si>
     <t>U</t>
   </si>
@@ -695,6 +695,24 @@
   </si>
   <si>
     <t>QUOT</t>
+  </si>
+  <si>
+    <t>物理x</t>
+  </si>
+  <si>
+    <t>物理y</t>
+  </si>
+  <si>
+    <t>posx</t>
+  </si>
+  <si>
+    <t>posy</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>NO_LED</t>
   </si>
 </sst>
 </file>
@@ -860,7 +878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -894,11 +912,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -978,6 +1005,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2721,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA372A0B-5DEB-6A44-A128-F71849955A98}">
-  <dimension ref="B1:AV64"/>
+  <dimension ref="B1:AV151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="AS50" sqref="AS50"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2734,7 +2763,8 @@
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -4985,6 +5015,9 @@
       <c r="J53" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="L53" s="36" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="54" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B54" s="22" t="s">
@@ -5015,6 +5048,10 @@
         <v>7</v>
       </c>
       <c r="K54" s="34"/>
+      <c r="L54" t="str">
+        <f>_xlfn.CONCAT("{",C54,",",D54,",",E54,",",F54,",",G54,",",H54,",",I54,",",J54,"},")</f>
+        <v>{0,1,2,3,4,5,6,7},</v>
+      </c>
     </row>
     <row r="55" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B55" s="22" t="s">
@@ -5044,6 +5081,10 @@
       <c r="J55" s="12">
         <v>33</v>
       </c>
+      <c r="L55" t="str">
+        <f t="shared" ref="L55:L64" si="0">_xlfn.CONCAT("{",C55,",",D55,",",E55,",",F55,",",G55,",",H55,",",I55,",",J55,"},")</f>
+        <v>{40,39,38,37,36,35,34,33},</v>
+      </c>
     </row>
     <row r="56" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B56" s="22" t="s">
@@ -5073,6 +5114,10 @@
       <c r="J56" s="12">
         <v>49</v>
       </c>
+      <c r="L56" t="str">
+        <f t="shared" si="0"/>
+        <v>{42,43,44,45,46,47,48,49},</v>
+      </c>
     </row>
     <row r="57" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B57" s="22" t="s">
@@ -5102,12 +5147,18 @@
       <c r="J57" s="12">
         <v>65</v>
       </c>
+      <c r="L57" t="str">
+        <f t="shared" si="0"/>
+        <v>{71,70,69,68,67,75,66,65},</v>
+      </c>
     </row>
     <row r="58" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B58" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="D58" s="12">
         <v>27</v>
       </c>
@@ -5128,6 +5179,10 @@
       </c>
       <c r="J58" s="12">
         <v>64</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="0"/>
+        <v>{NO_LED,27,52,51,50,62,63,64},</v>
       </c>
     </row>
     <row r="59" spans="2:34" ht="24" x14ac:dyDescent="0.3">
@@ -5158,6 +5213,10 @@
       <c r="J59" s="12">
         <v>17</v>
       </c>
+      <c r="L59" t="str">
+        <f t="shared" si="0"/>
+        <v>{24,23,22,21,20,19,18,17},</v>
+      </c>
     </row>
     <row r="60" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B60" s="22" t="s">
@@ -5187,6 +5246,10 @@
       <c r="J60" s="12">
         <v>8</v>
       </c>
+      <c r="L60" t="str">
+        <f t="shared" si="0"/>
+        <v>{16,14,13,12,11,10,9,8},</v>
+      </c>
     </row>
     <row r="61" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B61" s="22" t="s">
@@ -5216,6 +5279,10 @@
       <c r="J61" s="12">
         <v>60</v>
       </c>
+      <c r="L61" t="str">
+        <f t="shared" si="0"/>
+        <v>{59,53,55,57,56,54,58,60},</v>
+      </c>
     </row>
     <row r="62" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B62" s="22" t="s">
@@ -5224,7 +5291,9 @@
       <c r="C62" s="12">
         <v>78</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="E62" s="12">
         <v>81</v>
       </c>
@@ -5240,7 +5309,13 @@
       <c r="I62" s="12">
         <v>79</v>
       </c>
-      <c r="J62" s="4"/>
+      <c r="J62" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="0"/>
+        <v>{78,NO_LED,81,82,83,80,79,NO_LED},</v>
+      </c>
     </row>
     <row r="63" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B63" s="22" t="s">
@@ -5252,7 +5327,9 @@
       <c r="D63" s="12">
         <v>26</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="F63" s="13">
         <v>28</v>
       </c>
@@ -5267,6 +5344,10 @@
       </c>
       <c r="J63" s="12">
         <v>32</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="0"/>
+        <v>{25,26,NO_LED,28,29,30,31,32},</v>
       </c>
     </row>
     <row r="64" spans="2:34" ht="24" x14ac:dyDescent="0.3">
@@ -5296,6 +5377,1962 @@
       </c>
       <c r="J64" s="28">
         <v>15</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="0"/>
+        <v>{76,74,61,72,41,73,77,15},</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="B67" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" t="s">
+        <v>221</v>
+      </c>
+      <c r="F67" t="s">
+        <v>222</v>
+      </c>
+      <c r="G67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>224/20*C68</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>64/4*D68</f>
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <f>_xlfn.CONCAT("{",INT(E68+0.5),",",INT(F68+0.5),"},")</f>
+        <v>{0,0},</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:E132" si="1">224/20*C69</f>
+        <v>11.2</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:F132" si="2">64/4*D69</f>
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" ref="G69:G132" si="3">_xlfn.CONCAT("{",INT(E69+0.5),",",INT(F69+0.5),"},")</f>
+        <v>{11,0},</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>22.4</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="3"/>
+        <v>{22,0},</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>33.599999999999994</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="3"/>
+        <v>{34,0},</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>44.8</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="3"/>
+        <v>{45,0},</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="3"/>
+        <v>{56,0},</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>67.199999999999989</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="3"/>
+        <v>{67,0},</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>78.399999999999991</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="3"/>
+        <v>{78,0},</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>89.6</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="3"/>
+        <v>{90,0},</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>100.8</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="3"/>
+        <v>{101,0},</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="3"/>
+        <v>{112,0},</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>123.19999999999999</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="3"/>
+        <v>{123,0},</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>134.39999999999998</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="3"/>
+        <v>{134,0},</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>145.6</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="3"/>
+        <v>{146,0},</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>156.79999999999998</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="3"/>
+        <v>{157,0},</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>15</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="3"/>
+        <v>{168,0},</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>179.2</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="3"/>
+        <v>{179,0},</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <v>17</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>190.39999999999998</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="3"/>
+        <v>{190,0},</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>201.6</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="3"/>
+        <v>{202,0},</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>19</v>
+      </c>
+      <c r="C87">
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>212.79999999999998</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="3"/>
+        <v>{213,0},</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="3"/>
+        <v>{224,0},</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>21</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="3"/>
+        <v>{224,16},</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>22</v>
+      </c>
+      <c r="C90">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>212.79999999999998</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="3"/>
+        <v>{213,16},</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>18</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>201.6</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="3"/>
+        <v>{202,16},</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>24</v>
+      </c>
+      <c r="C92">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>190.39999999999998</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="3"/>
+        <v>{190,16},</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>179.2</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="3"/>
+        <v>{179,16},</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>156.79999999999998</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="3"/>
+        <v>{157,16},</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>27</v>
+      </c>
+      <c r="C95">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>145.6</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="3"/>
+        <v>{146,16},</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>28</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>134.39999999999998</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="3"/>
+        <v>{134,16},</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>123.19999999999999</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="3"/>
+        <v>{123,16},</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>30</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="3"/>
+        <v>{112,16},</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>31</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>100.8</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="3"/>
+        <v>{101,16},</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>32</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>89.6</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="3"/>
+        <v>{90,16},</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>33</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>78.399999999999991</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="3"/>
+        <v>{78,16},</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>34</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>67.199999999999989</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="3"/>
+        <v>{67,16},</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>35</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="3"/>
+        <v>{56,16},</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>36</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>44.8</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="3"/>
+        <v>{45,16},</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>37</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>33.599999999999994</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="3"/>
+        <v>{34,16},</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>38</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>22.4</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="3"/>
+        <v>{22,16},</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>39</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="3"/>
+        <v>{11,16},</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>40</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="3"/>
+        <v>{0,16},</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>41</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="3"/>
+        <v>{0,32},</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>42</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="3"/>
+        <v>{11,32},</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>43</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>22.4</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="3"/>
+        <v>{22,32},</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>44</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>33.599999999999994</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="3"/>
+        <v>{34,32},</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>45</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>44.8</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="3"/>
+        <v>{45,32},</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>46</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="3"/>
+        <v>{56,32},</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>47</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>67.199999999999989</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="3"/>
+        <v>{67,32},</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>48</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>78.399999999999991</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="3"/>
+        <v>{78,32},</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>49</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>89.6</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="3"/>
+        <v>{90,32},</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>50</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>100.8</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="3"/>
+        <v>{101,32},</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>51</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="3"/>
+        <v>{112,32},</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>52</v>
+      </c>
+      <c r="C120">
+        <v>11</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>123.19999999999999</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="3"/>
+        <v>{123,32},</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>53</v>
+      </c>
+      <c r="C121">
+        <v>17</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>190.39999999999998</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="3"/>
+        <v>{190,32},</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>54</v>
+      </c>
+      <c r="C122">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>201.6</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="3"/>
+        <v>{202,32},</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>55</v>
+      </c>
+      <c r="C123">
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>212.79999999999998</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="3"/>
+        <v>{213,32},</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>56</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="3"/>
+        <v>{224,32},</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>57</v>
+      </c>
+      <c r="C125">
+        <v>19</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>212.79999999999998</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="3"/>
+        <v>{213,48},</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>58</v>
+      </c>
+      <c r="C126">
+        <v>18</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>201.6</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="3"/>
+        <v>{202,48},</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>59</v>
+      </c>
+      <c r="C127">
+        <v>17</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>190.39999999999998</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="3"/>
+        <v>{190,48},</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>60</v>
+      </c>
+      <c r="C128">
+        <v>15</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="3"/>
+        <v>{168,48},</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>61</v>
+      </c>
+      <c r="C129">
+        <v>13</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>145.6</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="3"/>
+        <v>{146,48},</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>62</v>
+      </c>
+      <c r="C130">
+        <v>11</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>123.19999999999999</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="3"/>
+        <v>{123,48},</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>63</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="3"/>
+        <v>{112,48},</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>64</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="1"/>
+        <v>100.8</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="3"/>
+        <v>{101,48},</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>65</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ref="E133:E151" si="4">224/20*C133</f>
+        <v>89.6</v>
+      </c>
+      <c r="F133">
+        <f t="shared" ref="F133:F151" si="5">64/4*D133</f>
+        <v>48</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" ref="G133:G151" si="6">_xlfn.CONCAT("{",INT(E133+0.5),",",INT(F133+0.5),"},")</f>
+        <v>{90,48},</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>66</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="4"/>
+        <v>78.399999999999991</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="6"/>
+        <v>{78,48},</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>67</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>67.199999999999989</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="6"/>
+        <v>{67,48},</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>68</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="6"/>
+        <v>{56,48},</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>69</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="4"/>
+        <v>44.8</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="6"/>
+        <v>{45,48},</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>70</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="4"/>
+        <v>33.599999999999994</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="6"/>
+        <v>{34,48},</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>71</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="4"/>
+        <v>22.4</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="6"/>
+        <v>{22,48},</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>72</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="6"/>
+        <v>{0,48},</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>73</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="6"/>
+        <v>{0,64},</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>74</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="4"/>
+        <v>11.2</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="6"/>
+        <v>{11,64},</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>75</v>
+      </c>
+      <c r="C143">
+        <v>7</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="4"/>
+        <v>78.399999999999991</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="6"/>
+        <v>{78,64},</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>76</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="4"/>
+        <v>123.19999999999999</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="6"/>
+        <v>{123,64},</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>77</v>
+      </c>
+      <c r="C145">
+        <v>13</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="4"/>
+        <v>145.6</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="6"/>
+        <v>{146,64},</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>78</v>
+      </c>
+      <c r="C146">
+        <v>14</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="4"/>
+        <v>156.79999999999998</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="6"/>
+        <v>{157,64},</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>79</v>
+      </c>
+      <c r="C147">
+        <v>15</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="6"/>
+        <v>{168,64},</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>80</v>
+      </c>
+      <c r="C148">
+        <v>16</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="4"/>
+        <v>179.2</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="6"/>
+        <v>{179,64},</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>81</v>
+      </c>
+      <c r="C149">
+        <v>17</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="4"/>
+        <v>190.39999999999998</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="6"/>
+        <v>{190,64},</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>82</v>
+      </c>
+      <c r="C150">
+        <v>19</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="4"/>
+        <v>212.79999999999998</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="6"/>
+        <v>{213,64},</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>83</v>
+      </c>
+      <c r="C151">
+        <v>20</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="6"/>
+        <v>{224,64},</v>
       </c>
     </row>
   </sheetData>

--- a/data/next_keyboard.xlsx
+++ b/data/next_keyboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omzn/Dropbox/git/next_keyboard_v2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1886D2-E72C-8D4F-A565-758DE5C282E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AF615D-5ADB-5F4C-8610-93292234DD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{39162797-455C-D146-9F8E-5DE726948B5C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="242">
   <si>
     <t>U</t>
   </si>
@@ -713,6 +713,57 @@
   </si>
   <si>
     <t>NO_LED</t>
+  </si>
+  <si>
+    <t>QK_BOOT</t>
+  </si>
+  <si>
+    <t>KC_F1</t>
+  </si>
+  <si>
+    <t>KC_F2</t>
+  </si>
+  <si>
+    <t>KC_F3</t>
+  </si>
+  <si>
+    <t>KC_F4</t>
+  </si>
+  <si>
+    <t>KC_F5</t>
+  </si>
+  <si>
+    <t>KC_F6</t>
+  </si>
+  <si>
+    <t>KC_F7</t>
+  </si>
+  <si>
+    <t>KC_F8</t>
+  </si>
+  <si>
+    <t>KC_F9</t>
+  </si>
+  <si>
+    <t>KC_F12</t>
+  </si>
+  <si>
+    <t>KC_F11</t>
+  </si>
+  <si>
+    <t>KC_F10</t>
+  </si>
+  <si>
+    <t>QK_RBT</t>
+  </si>
+  <si>
+    <t>KC_BRIU</t>
+  </si>
+  <si>
+    <t>_______</t>
+  </si>
+  <si>
+    <t>KC_UP</t>
   </si>
 </sst>
 </file>
@@ -925,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1005,8 +1056,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2750,24 +2804,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA372A0B-5DEB-6A44-A128-F71849955A98}">
-  <dimension ref="B1:AV151"/>
+  <dimension ref="B1:AV164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -4615,10 +4667,10 @@
         <v>180</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>186</v>
+        <v>192</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -4660,8 +4712,8 @@
       <c r="C45" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>192</v>
+      <c r="D45" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>201</v>
@@ -4875,8 +4927,8 @@
       <c r="C48" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>193</v>
+      <c r="D48" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="13" t="s">
@@ -4978,789 +5030,932 @@
       </c>
     </row>
     <row r="51" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AH51" t="s">
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="33"/>
+    </row>
+    <row r="52" spans="2:34" ht="24" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="AH52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AH52" t="s">
+    <row r="53" spans="2:34" ht="24" x14ac:dyDescent="0.3">
+      <c r="B53" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="AH53" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="2:34" ht="24" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L53" s="36" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="54" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B54" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="12">
-        <v>0</v>
-      </c>
-      <c r="D54" s="12">
-        <v>1</v>
-      </c>
-      <c r="E54" s="12">
-        <v>2</v>
-      </c>
-      <c r="F54" s="12">
-        <v>3</v>
-      </c>
-      <c r="G54" s="12">
-        <v>4</v>
-      </c>
-      <c r="H54" s="12">
-        <v>5</v>
-      </c>
-      <c r="I54" s="12">
-        <v>6</v>
-      </c>
-      <c r="J54" s="12">
-        <v>7</v>
-      </c>
-      <c r="K54" s="34"/>
-      <c r="L54" t="str">
-        <f>_xlfn.CONCAT("{",C54,",",D54,",",E54,",",F54,",",G54,",",H54,",",I54,",",J54,"},")</f>
-        <v>{0,1,2,3,4,5,6,7},</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
     </row>
     <row r="55" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B55" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="12">
-        <v>40</v>
-      </c>
-      <c r="D55" s="12">
-        <v>39</v>
-      </c>
-      <c r="E55" s="12">
-        <v>38</v>
-      </c>
-      <c r="F55" s="12">
-        <v>37</v>
-      </c>
-      <c r="G55" s="12">
-        <v>36</v>
-      </c>
-      <c r="H55" s="12">
-        <v>35</v>
-      </c>
-      <c r="I55" s="12">
-        <v>34</v>
-      </c>
-      <c r="J55" s="12">
-        <v>33</v>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" ref="L55:L64" si="0">_xlfn.CONCAT("{",C55,",",D55,",",E55,",",F55,",",G55,",",H55,",",I55,",",J55,"},")</f>
-        <v>{40,39,38,37,36,35,34,33},</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
     </row>
     <row r="56" spans="2:34" ht="24" x14ac:dyDescent="0.3">
       <c r="B56" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="2:34" ht="24" x14ac:dyDescent="0.3">
+      <c r="B57" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="2:34" ht="24" x14ac:dyDescent="0.3">
+      <c r="B58" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="2:34" ht="24" x14ac:dyDescent="0.3">
+      <c r="B59" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="60" spans="2:34" ht="24" x14ac:dyDescent="0.3">
+      <c r="B60" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="2:34" ht="24" x14ac:dyDescent="0.3">
+      <c r="B61" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="2:34" ht="24" x14ac:dyDescent="0.3">
+      <c r="B62" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+    </row>
+    <row r="63" spans="2:34" ht="24" x14ac:dyDescent="0.3">
+      <c r="B63" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+    </row>
+    <row r="66" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L66" s="36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B67" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="12">
+        <v>0</v>
+      </c>
+      <c r="D67" s="12">
+        <v>1</v>
+      </c>
+      <c r="E67" s="12">
+        <v>2</v>
+      </c>
+      <c r="F67" s="12">
+        <v>3</v>
+      </c>
+      <c r="G67" s="12">
+        <v>4</v>
+      </c>
+      <c r="H67" s="12">
+        <v>5</v>
+      </c>
+      <c r="I67" s="12">
+        <v>6</v>
+      </c>
+      <c r="J67" s="12">
+        <v>7</v>
+      </c>
+      <c r="K67" s="34"/>
+      <c r="L67" t="str">
+        <f>_xlfn.CONCAT("{",C67,",",D67,",",E67,",",F67,",",G67,",",H67,",",I67,",",J67,"},")</f>
+        <v>{0,1,2,3,4,5,6,7},</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B68" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="12">
+        <v>40</v>
+      </c>
+      <c r="D68" s="12">
+        <v>39</v>
+      </c>
+      <c r="E68" s="12">
+        <v>38</v>
+      </c>
+      <c r="F68" s="12">
+        <v>37</v>
+      </c>
+      <c r="G68" s="12">
+        <v>36</v>
+      </c>
+      <c r="H68" s="12">
+        <v>35</v>
+      </c>
+      <c r="I68" s="12">
+        <v>34</v>
+      </c>
+      <c r="J68" s="12">
+        <v>33</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L77" si="0">_xlfn.CONCAT("{",C68,",",D68,",",E68,",",F68,",",G68,",",H68,",",I68,",",J68,"},")</f>
+        <v>{40,39,38,37,36,35,34,33},</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B69" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C69" s="12">
         <v>42</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D69" s="12">
         <v>43</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E69" s="12">
         <v>44</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F69" s="12">
         <v>45</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G69" s="12">
         <v>46</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H69" s="12">
         <v>47</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I69" s="12">
         <v>48</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J69" s="12">
         <v>49</v>
       </c>
-      <c r="L56" t="str">
+      <c r="L69" t="str">
         <f t="shared" si="0"/>
         <v>{42,43,44,45,46,47,48,49},</v>
       </c>
     </row>
-    <row r="57" spans="2:34" ht="24" x14ac:dyDescent="0.3">
-      <c r="B57" s="22" t="s">
+    <row r="70" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B70" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C70" s="12">
         <v>71</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D70" s="12">
         <v>70</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E70" s="12">
         <v>69</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F70" s="13">
         <v>68</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G70" s="12">
         <v>67</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H70" s="12">
         <v>75</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I70" s="12">
         <v>66</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J70" s="12">
         <v>65</v>
       </c>
-      <c r="L57" t="str">
+      <c r="L70" t="str">
         <f t="shared" si="0"/>
         <v>{71,70,69,68,67,75,66,65},</v>
       </c>
     </row>
-    <row r="58" spans="2:34" ht="24" x14ac:dyDescent="0.3">
-      <c r="B58" s="22" t="s">
+    <row r="71" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B71" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D71" s="12">
         <v>27</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E71" s="13">
         <v>52</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F71" s="12">
         <v>51</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G71" s="12">
         <v>50</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H71" s="12">
         <v>62</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I71" s="12">
         <v>63</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J71" s="12">
         <v>64</v>
       </c>
-      <c r="L58" t="str">
+      <c r="L71" t="str">
         <f t="shared" si="0"/>
         <v>{NO_LED,27,52,51,50,62,63,64},</v>
       </c>
     </row>
-    <row r="59" spans="2:34" ht="24" x14ac:dyDescent="0.3">
-      <c r="B59" s="22" t="s">
+    <row r="72" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B72" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C72" s="12">
         <v>24</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D72" s="12">
         <v>23</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E72" s="12">
         <v>22</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F72" s="13">
         <v>21</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G72" s="13">
         <v>20</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H72" s="12">
         <v>19</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I72" s="28">
         <v>18</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J72" s="12">
         <v>17</v>
       </c>
-      <c r="L59" t="str">
+      <c r="L72" t="str">
         <f t="shared" si="0"/>
         <v>{24,23,22,21,20,19,18,17},</v>
       </c>
     </row>
-    <row r="60" spans="2:34" ht="24" x14ac:dyDescent="0.3">
-      <c r="B60" s="22" t="s">
+    <row r="73" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B73" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C73" s="12">
         <v>16</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D73" s="12">
         <v>14</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E73" s="12">
         <v>13</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F73" s="13">
         <v>12</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G73" s="13">
         <v>11</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H73" s="12">
         <v>10</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I73" s="12">
         <v>9</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J73" s="12">
         <v>8</v>
       </c>
-      <c r="L60" t="str">
+      <c r="L73" t="str">
         <f t="shared" si="0"/>
         <v>{16,14,13,12,11,10,9,8},</v>
       </c>
     </row>
-    <row r="61" spans="2:34" ht="24" x14ac:dyDescent="0.3">
-      <c r="B61" s="22" t="s">
+    <row r="74" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B74" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C74" s="12">
         <v>59</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D74" s="12">
         <v>53</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E74" s="13">
         <v>55</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F74" s="12">
         <v>57</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G74" s="12">
         <v>56</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H74" s="12">
         <v>54</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I74" s="12">
         <v>58</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J74" s="12">
         <v>60</v>
       </c>
-      <c r="L61" t="str">
+      <c r="L74" t="str">
         <f t="shared" si="0"/>
         <v>{59,53,55,57,56,54,58,60},</v>
       </c>
     </row>
-    <row r="62" spans="2:34" ht="24" x14ac:dyDescent="0.3">
-      <c r="B62" s="22" t="s">
+    <row r="75" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B75" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C75" s="12">
         <v>78</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E75" s="12">
         <v>81</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F75" s="13">
         <v>82</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G75" s="13">
         <v>83</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H75" s="12">
         <v>80</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I75" s="12">
         <v>79</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="L62" t="str">
+      <c r="L75" t="str">
         <f t="shared" si="0"/>
         <v>{78,NO_LED,81,82,83,80,79,NO_LED},</v>
       </c>
     </row>
-    <row r="63" spans="2:34" ht="24" x14ac:dyDescent="0.3">
-      <c r="B63" s="22" t="s">
+    <row r="76" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B76" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C76" s="12">
         <v>25</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D76" s="12">
         <v>26</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F76" s="13">
         <v>28</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G76" s="13">
         <v>29</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H76" s="12">
         <v>30</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I76" s="12">
         <v>31</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J76" s="12">
         <v>32</v>
       </c>
-      <c r="L63" t="str">
+      <c r="L76" t="str">
         <f t="shared" si="0"/>
         <v>{25,26,NO_LED,28,29,30,31,32},</v>
       </c>
     </row>
-    <row r="64" spans="2:34" ht="24" x14ac:dyDescent="0.3">
-      <c r="B64" s="22" t="s">
+    <row r="77" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B77" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C77" s="16">
         <v>76</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D77" s="16">
         <v>74</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E77" s="16">
         <v>61</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F77" s="16">
         <v>72</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G77" s="16">
         <v>41</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H77" s="16">
         <v>73</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I77" s="16">
         <v>77</v>
       </c>
-      <c r="J64" s="28">
+      <c r="J77" s="28">
         <v>15</v>
       </c>
-      <c r="L64" t="str">
+      <c r="L77" t="str">
         <f t="shared" si="0"/>
         <v>{76,74,61,72,41,73,77,15},</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="B67" s="35" t="s">
+    <row r="80" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B80" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C80" t="s">
         <v>219</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D80" t="s">
         <v>220</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E80" t="s">
         <v>221</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F80" t="s">
         <v>222</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G80" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81">
         <v>0</v>
       </c>
-      <c r="C68">
+      <c r="C81">
         <v>0</v>
       </c>
-      <c r="D68">
+      <c r="D81">
         <v>0</v>
       </c>
-      <c r="E68">
-        <f>224/20*C68</f>
+      <c r="E81">
+        <f>224/20*C81</f>
         <v>0</v>
       </c>
-      <c r="F68">
-        <f>64/4*D68</f>
+      <c r="F81">
+        <f>64/4*D81</f>
         <v>0</v>
       </c>
-      <c r="G68" t="str">
-        <f>_xlfn.CONCAT("{",INT(E68+0.5),",",INT(F68+0.5),"},")</f>
+      <c r="G81" t="str">
+        <f>_xlfn.CONCAT("{",INT(E81+0.5),",",INT(F81+0.5),"},")</f>
         <v>{0,0},</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82">
         <v>1</v>
       </c>
-      <c r="C69">
+      <c r="C82">
         <v>1</v>
       </c>
-      <c r="D69">
+      <c r="D82">
         <v>0</v>
       </c>
-      <c r="E69">
-        <f t="shared" ref="E69:E132" si="1">224/20*C69</f>
+      <c r="E82">
+        <f t="shared" ref="E82:E145" si="1">224/20*C82</f>
         <v>11.2</v>
       </c>
-      <c r="F69">
-        <f t="shared" ref="F69:F132" si="2">64/4*D69</f>
+      <c r="F82">
+        <f t="shared" ref="F82:F145" si="2">64/4*D82</f>
         <v>0</v>
       </c>
-      <c r="G69" t="str">
-        <f t="shared" ref="G69:G132" si="3">_xlfn.CONCAT("{",INT(E69+0.5),",",INT(F69+0.5),"},")</f>
+      <c r="G82" t="str">
+        <f t="shared" ref="G82:G145" si="3">_xlfn.CONCAT("{",INT(E82+0.5),",",INT(F82+0.5),"},")</f>
         <v>{11,0},</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83">
         <v>2</v>
       </c>
-      <c r="C70">
+      <c r="C83">
         <v>2</v>
       </c>
-      <c r="D70">
+      <c r="D83">
         <v>0</v>
       </c>
-      <c r="E70">
+      <c r="E83">
         <f t="shared" si="1"/>
         <v>22.4</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="3"/>
-        <v>{22,0},</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>33.599999999999994</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="3"/>
-        <v>{34,0},</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
-        <v>44.8</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="3"/>
-        <v>{45,0},</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73">
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="3"/>
-        <v>{56,0},</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>6</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
-        <v>67.199999999999989</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="3"/>
-        <v>{67,0},</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <v>7</v>
-      </c>
-      <c r="C75">
-        <v>7</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>78.399999999999991</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="3"/>
-        <v>{78,0},</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>8</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>89.6</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="3"/>
-        <v>{90,0},</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>9</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
-        <v>100.8</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="3"/>
-        <v>{101,0},</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78">
-        <v>10</v>
-      </c>
-      <c r="C78">
-        <v>10</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="3"/>
-        <v>{112,0},</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79">
-        <v>11</v>
-      </c>
-      <c r="C79">
-        <v>11</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="1"/>
-        <v>123.19999999999999</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="3"/>
-        <v>{123,0},</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80">
-        <v>12</v>
-      </c>
-      <c r="C80">
-        <v>12</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="1"/>
-        <v>134.39999999999998</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="3"/>
-        <v>{134,0},</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81">
-        <v>13</v>
-      </c>
-      <c r="C81">
-        <v>13</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="1"/>
-        <v>145.6</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="3"/>
-        <v>{146,0},</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82">
-        <v>14</v>
-      </c>
-      <c r="C82">
-        <v>14</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="1"/>
-        <v>156.79999999999998</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="3"/>
-        <v>{157,0},</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83">
-        <v>15</v>
-      </c>
-      <c r="C83">
-        <v>15</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="1"/>
-        <v>168</v>
       </c>
       <c r="F83">
         <f t="shared" si="2"/>
@@ -5768,22 +5963,22 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="3"/>
-        <v>{168,0},</v>
+        <v>{22,0},</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C84">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>179.2</v>
+        <v>33.599999999999994</v>
       </c>
       <c r="F84">
         <f t="shared" si="2"/>
@@ -5791,22 +5986,22 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="3"/>
-        <v>{179,0},</v>
+        <v>{34,0},</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>190.39999999999998</v>
+        <v>44.8</v>
       </c>
       <c r="F85">
         <f t="shared" si="2"/>
@@ -5814,22 +6009,22 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="3"/>
-        <v>{190,0},</v>
+        <v>{45,0},</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>201.6</v>
+        <v>56</v>
       </c>
       <c r="F86">
         <f t="shared" si="2"/>
@@ -5837,22 +6032,22 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="3"/>
-        <v>{202,0},</v>
+        <v>{56,0},</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>212.79999999999998</v>
+        <v>67.199999999999989</v>
       </c>
       <c r="F87">
         <f t="shared" si="2"/>
@@ -5860,22 +6055,22 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="3"/>
-        <v>{213,0},</v>
+        <v>{67,0},</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>78.399999999999991</v>
       </c>
       <c r="F88">
         <f t="shared" si="2"/>
@@ -5883,321 +6078,321 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="3"/>
-        <v>{224,0},</v>
+        <v>{78,0},</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>89.6</v>
       </c>
       <c r="F89">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="3"/>
-        <v>{224,16},</v>
+        <v>{90,0},</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>212.79999999999998</v>
+        <v>100.8</v>
       </c>
       <c r="F90">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="3"/>
-        <v>{213,16},</v>
+        <v>{101,0},</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>201.6</v>
+        <v>112</v>
       </c>
       <c r="F91">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="3"/>
-        <v>{202,16},</v>
+        <v>{112,0},</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>190.39999999999998</v>
+        <v>123.19999999999999</v>
       </c>
       <c r="F92">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="3"/>
-        <v>{190,16},</v>
+        <v>{123,0},</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>179.2</v>
+        <v>134.39999999999998</v>
       </c>
       <c r="F93">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="3"/>
-        <v>{179,16},</v>
+        <v>{134,0},</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>156.79999999999998</v>
+        <v>145.6</v>
       </c>
       <c r="F94">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="3"/>
-        <v>{157,16},</v>
+        <v>{146,0},</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C95">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>145.6</v>
+        <v>156.79999999999998</v>
       </c>
       <c r="F95">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="3"/>
-        <v>{146,16},</v>
+        <v>{157,0},</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C96">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>134.39999999999998</v>
+        <v>168</v>
       </c>
       <c r="F96">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="3"/>
-        <v>{134,16},</v>
+        <v>{168,0},</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>123.19999999999999</v>
+        <v>179.2</v>
       </c>
       <c r="F97">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="3"/>
-        <v>{123,16},</v>
+        <v>{179,0},</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>190.39999999999998</v>
       </c>
       <c r="F98">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="3"/>
-        <v>{112,16},</v>
+        <v>{190,0},</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>100.8</v>
+        <v>201.6</v>
       </c>
       <c r="F99">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="3"/>
-        <v>{101,16},</v>
+        <v>{202,0},</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C100">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>89.6</v>
+        <v>212.79999999999998</v>
       </c>
       <c r="F100">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="3"/>
-        <v>{90,16},</v>
+        <v>{213,0},</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>78.399999999999991</v>
+        <v>224</v>
       </c>
       <c r="F101">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="3"/>
-        <v>{78,16},</v>
+        <v>{224,0},</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>67.199999999999989</v>
+        <v>224</v>
       </c>
       <c r="F102">
         <f t="shared" si="2"/>
@@ -6205,22 +6400,22 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="3"/>
-        <v>{67,16},</v>
+        <v>{224,16},</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>212.79999999999998</v>
       </c>
       <c r="F103">
         <f t="shared" si="2"/>
@@ -6228,22 +6423,22 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="3"/>
-        <v>{56,16},</v>
+        <v>{213,16},</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>44.8</v>
+        <v>201.6</v>
       </c>
       <c r="F104">
         <f t="shared" si="2"/>
@@ -6251,22 +6446,22 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="3"/>
-        <v>{45,16},</v>
+        <v>{202,16},</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>33.599999999999994</v>
+        <v>190.39999999999998</v>
       </c>
       <c r="F105">
         <f t="shared" si="2"/>
@@ -6274,22 +6469,22 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="3"/>
-        <v>{34,16},</v>
+        <v>{190,16},</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>22.4</v>
+        <v>179.2</v>
       </c>
       <c r="F106">
         <f t="shared" si="2"/>
@@ -6297,22 +6492,22 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="3"/>
-        <v>{22,16},</v>
+        <v>{179,16},</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>11.2</v>
+        <v>156.79999999999998</v>
       </c>
       <c r="F107">
         <f t="shared" si="2"/>
@@ -6320,22 +6515,22 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="3"/>
-        <v>{11,16},</v>
+        <v>{157,16},</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>145.6</v>
       </c>
       <c r="F108">
         <f t="shared" si="2"/>
@@ -6343,156 +6538,156 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="3"/>
-        <v>{0,16},</v>
+        <v>{146,16},</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>134.39999999999998</v>
       </c>
       <c r="F109">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="3"/>
-        <v>{0,32},</v>
+        <v>{134,16},</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C110">
+        <v>11</v>
+      </c>
+      <c r="D110">
         <v>1</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>11.2</v>
+        <v>123.19999999999999</v>
       </c>
       <c r="F110">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="3"/>
-        <v>{11,32},</v>
+        <v>{123,16},</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>22.4</v>
+        <v>112</v>
       </c>
       <c r="F111">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="3"/>
-        <v>{22,32},</v>
+        <v>{112,16},</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
-        <v>33.599999999999994</v>
+        <v>100.8</v>
       </c>
       <c r="F112">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="3"/>
-        <v>{34,32},</v>
+        <v>{101,16},</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
-        <v>44.8</v>
+        <v>89.6</v>
       </c>
       <c r="F113">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="3"/>
-        <v>{45,32},</v>
+        <v>{90,16},</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>78.399999999999991</v>
       </c>
       <c r="F114">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="3"/>
-        <v>{56,32},</v>
+        <v>{78,16},</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C115">
         <v>6</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
@@ -6500,164 +6695,164 @@
       </c>
       <c r="F115">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="3"/>
-        <v>{67,32},</v>
+        <v>{67,16},</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
-        <v>78.399999999999991</v>
+        <v>56</v>
       </c>
       <c r="F116">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="3"/>
-        <v>{78,32},</v>
+        <v>{56,16},</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
-        <v>89.6</v>
+        <v>44.8</v>
       </c>
       <c r="F117">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="3"/>
-        <v>{90,32},</v>
+        <v>{45,16},</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <f t="shared" si="1"/>
-        <v>100.8</v>
+        <v>33.599999999999994</v>
       </c>
       <c r="F118">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="3"/>
-        <v>{101,32},</v>
+        <v>{34,16},</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>22.4</v>
       </c>
       <c r="F119">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="3"/>
-        <v>{112,32},</v>
+        <v>{22,16},</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <f t="shared" si="1"/>
-        <v>123.19999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="F120">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="3"/>
-        <v>{123,32},</v>
+        <v>{11,16},</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C121">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <f t="shared" si="1"/>
-        <v>190.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="3"/>
-        <v>{190,32},</v>
+        <v>{0,16},</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C122">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>2</v>
       </c>
       <c r="E122">
         <f t="shared" si="1"/>
-        <v>201.6</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <f t="shared" si="2"/>
@@ -6665,22 +6860,22 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="3"/>
-        <v>{202,32},</v>
+        <v>{0,32},</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C123">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123">
         <f t="shared" si="1"/>
-        <v>212.79999999999998</v>
+        <v>11.2</v>
       </c>
       <c r="F123">
         <f t="shared" si="2"/>
@@ -6688,22 +6883,22 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="3"/>
-        <v>{213,32},</v>
+        <v>{11,32},</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C124">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>22.4</v>
       </c>
       <c r="F124">
         <f t="shared" si="2"/>
@@ -6711,626 +6906,925 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="3"/>
-        <v>{224,32},</v>
+        <v>{22,32},</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C125">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <f t="shared" si="1"/>
-        <v>212.79999999999998</v>
+        <v>33.599999999999994</v>
       </c>
       <c r="F125">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="3"/>
-        <v>{213,48},</v>
+        <v>{34,32},</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C126">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <f t="shared" si="1"/>
-        <v>201.6</v>
+        <v>44.8</v>
       </c>
       <c r="F126">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="3"/>
-        <v>{202,48},</v>
+        <v>{45,32},</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C127">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E127">
         <f t="shared" si="1"/>
-        <v>190.39999999999998</v>
+        <v>56</v>
       </c>
       <c r="F127">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="3"/>
-        <v>{190,48},</v>
+        <v>{56,32},</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C128">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>67.199999999999989</v>
       </c>
       <c r="F128">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="3"/>
-        <v>{168,48},</v>
+        <v>{67,32},</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C129">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <f t="shared" si="1"/>
-        <v>145.6</v>
+        <v>78.399999999999991</v>
       </c>
       <c r="F129">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="3"/>
-        <v>{146,48},</v>
+        <v>{78,32},</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <f t="shared" si="1"/>
-        <v>123.19999999999999</v>
+        <v>89.6</v>
       </c>
       <c r="F130">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="3"/>
-        <v>{123,48},</v>
+        <v>{90,32},</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>100.8</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="3"/>
-        <v>{112,48},</v>
+        <v>{101,32},</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C132">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E132">
         <f t="shared" si="1"/>
-        <v>100.8</v>
+        <v>112</v>
       </c>
       <c r="F132">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="3"/>
-        <v>{101,48},</v>
+        <v>{112,32},</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C133">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:E151" si="4">224/20*C133</f>
-        <v>89.6</v>
+        <f t="shared" si="1"/>
+        <v>123.19999999999999</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133:F151" si="5">64/4*D133</f>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" ref="G133:G151" si="6">_xlfn.CONCAT("{",INT(E133+0.5),",",INT(F133+0.5),"},")</f>
-        <v>{90,48},</v>
+        <f t="shared" si="3"/>
+        <v>{123,32},</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134">
+        <v>53</v>
+      </c>
+      <c r="C134">
+        <v>17</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="1"/>
+        <v>190.39999999999998</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="3"/>
+        <v>{190,32},</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>54</v>
+      </c>
+      <c r="C135">
+        <v>18</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="1"/>
+        <v>201.6</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="3"/>
+        <v>{202,32},</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>55</v>
+      </c>
+      <c r="C136">
+        <v>19</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="1"/>
+        <v>212.79999999999998</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="3"/>
+        <v>{213,32},</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>56</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="3"/>
+        <v>{224,32},</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>57</v>
+      </c>
+      <c r="C138">
+        <v>19</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="1"/>
+        <v>212.79999999999998</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="3"/>
+        <v>{213,48},</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>58</v>
+      </c>
+      <c r="C139">
+        <v>18</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="1"/>
+        <v>201.6</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="3"/>
+        <v>{202,48},</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>59</v>
+      </c>
+      <c r="C140">
+        <v>17</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="1"/>
+        <v>190.39999999999998</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="3"/>
+        <v>{190,48},</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>60</v>
+      </c>
+      <c r="C141">
+        <v>15</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="3"/>
+        <v>{168,48},</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>61</v>
+      </c>
+      <c r="C142">
+        <v>13</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="1"/>
+        <v>145.6</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="3"/>
+        <v>{146,48},</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>62</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="1"/>
+        <v>123.19999999999999</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="3"/>
+        <v>{123,48},</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>63</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="3"/>
+        <v>{112,48},</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>64</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="1"/>
+        <v>100.8</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="3"/>
+        <v>{101,48},</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>65</v>
+      </c>
+      <c r="C146">
+        <v>8</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ref="E146:E164" si="4">224/20*C146</f>
+        <v>89.6</v>
+      </c>
+      <c r="F146">
+        <f t="shared" ref="F146:F164" si="5">64/4*D146</f>
+        <v>48</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" ref="G146:G164" si="6">_xlfn.CONCAT("{",INT(E146+0.5),",",INT(F146+0.5),"},")</f>
+        <v>{90,48},</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B147">
         <v>66</v>
       </c>
-      <c r="C134">
+      <c r="C147">
         <v>7</v>
       </c>
-      <c r="D134">
+      <c r="D147">
         <v>3</v>
       </c>
-      <c r="E134">
+      <c r="E147">
         <f t="shared" si="4"/>
         <v>78.399999999999991</v>
       </c>
-      <c r="F134">
+      <c r="F147">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G134" t="str">
+      <c r="G147" t="str">
         <f t="shared" si="6"/>
         <v>{78,48},</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B135">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B148">
         <v>67</v>
       </c>
-      <c r="C135">
+      <c r="C148">
         <v>6</v>
       </c>
-      <c r="D135">
+      <c r="D148">
         <v>3</v>
       </c>
-      <c r="E135">
+      <c r="E148">
         <f t="shared" si="4"/>
         <v>67.199999999999989</v>
       </c>
-      <c r="F135">
+      <c r="F148">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G135" t="str">
+      <c r="G148" t="str">
         <f t="shared" si="6"/>
         <v>{67,48},</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B136">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B149">
         <v>68</v>
       </c>
-      <c r="C136">
+      <c r="C149">
         <v>5</v>
       </c>
-      <c r="D136">
+      <c r="D149">
         <v>3</v>
       </c>
-      <c r="E136">
+      <c r="E149">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="F136">
+      <c r="F149">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G136" t="str">
+      <c r="G149" t="str">
         <f t="shared" si="6"/>
         <v>{56,48},</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B137">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B150">
         <v>69</v>
       </c>
-      <c r="C137">
+      <c r="C150">
         <v>4</v>
       </c>
-      <c r="D137">
+      <c r="D150">
         <v>3</v>
       </c>
-      <c r="E137">
+      <c r="E150">
         <f t="shared" si="4"/>
         <v>44.8</v>
       </c>
-      <c r="F137">
+      <c r="F150">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G137" t="str">
+      <c r="G150" t="str">
         <f t="shared" si="6"/>
         <v>{45,48},</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B138">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B151">
         <v>70</v>
       </c>
-      <c r="C138">
+      <c r="C151">
         <v>3</v>
       </c>
-      <c r="D138">
+      <c r="D151">
         <v>3</v>
       </c>
-      <c r="E138">
+      <c r="E151">
         <f t="shared" si="4"/>
         <v>33.599999999999994</v>
       </c>
-      <c r="F138">
+      <c r="F151">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G138" t="str">
+      <c r="G151" t="str">
         <f t="shared" si="6"/>
         <v>{34,48},</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B139">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B152">
         <v>71</v>
       </c>
-      <c r="C139">
+      <c r="C152">
         <v>2</v>
       </c>
-      <c r="D139">
+      <c r="D152">
         <v>3</v>
       </c>
-      <c r="E139">
+      <c r="E152">
         <f t="shared" si="4"/>
         <v>22.4</v>
       </c>
-      <c r="F139">
+      <c r="F152">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G139" t="str">
+      <c r="G152" t="str">
         <f t="shared" si="6"/>
         <v>{22,48},</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B140">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B153">
         <v>72</v>
       </c>
-      <c r="C140">
+      <c r="C153">
         <v>0</v>
       </c>
-      <c r="D140">
+      <c r="D153">
         <v>3</v>
       </c>
-      <c r="E140">
+      <c r="E153">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F140">
+      <c r="F153">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G140" t="str">
+      <c r="G153" t="str">
         <f t="shared" si="6"/>
         <v>{0,48},</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B154">
         <v>73</v>
       </c>
-      <c r="C141">
+      <c r="C154">
         <v>0</v>
       </c>
-      <c r="D141">
+      <c r="D154">
         <v>4</v>
       </c>
-      <c r="E141">
+      <c r="E154">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F141">
+      <c r="F154">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G141" t="str">
+      <c r="G154" t="str">
         <f t="shared" si="6"/>
         <v>{0,64},</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B142">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B155">
         <v>74</v>
       </c>
-      <c r="C142">
+      <c r="C155">
         <v>1</v>
       </c>
-      <c r="D142">
+      <c r="D155">
         <v>4</v>
       </c>
-      <c r="E142">
+      <c r="E155">
         <f t="shared" si="4"/>
         <v>11.2</v>
       </c>
-      <c r="F142">
+      <c r="F155">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G142" t="str">
+      <c r="G155" t="str">
         <f t="shared" si="6"/>
         <v>{11,64},</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B143">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B156">
         <v>75</v>
       </c>
-      <c r="C143">
+      <c r="C156">
         <v>7</v>
       </c>
-      <c r="D143">
+      <c r="D156">
         <v>4</v>
       </c>
-      <c r="E143">
+      <c r="E156">
         <f t="shared" si="4"/>
         <v>78.399999999999991</v>
       </c>
-      <c r="F143">
+      <c r="F156">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G143" t="str">
+      <c r="G156" t="str">
         <f t="shared" si="6"/>
         <v>{78,64},</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B144">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B157">
         <v>76</v>
       </c>
-      <c r="C144">
+      <c r="C157">
         <v>11</v>
       </c>
-      <c r="D144">
+      <c r="D157">
         <v>4</v>
       </c>
-      <c r="E144">
+      <c r="E157">
         <f t="shared" si="4"/>
         <v>123.19999999999999</v>
       </c>
-      <c r="F144">
+      <c r="F157">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G144" t="str">
+      <c r="G157" t="str">
         <f t="shared" si="6"/>
         <v>{123,64},</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B145">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B158">
         <v>77</v>
       </c>
-      <c r="C145">
+      <c r="C158">
         <v>13</v>
       </c>
-      <c r="D145">
+      <c r="D158">
         <v>4</v>
       </c>
-      <c r="E145">
+      <c r="E158">
         <f t="shared" si="4"/>
         <v>145.6</v>
       </c>
-      <c r="F145">
+      <c r="F158">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G145" t="str">
+      <c r="G158" t="str">
         <f t="shared" si="6"/>
         <v>{146,64},</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B146">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B159">
         <v>78</v>
       </c>
-      <c r="C146">
+      <c r="C159">
         <v>14</v>
       </c>
-      <c r="D146">
+      <c r="D159">
         <v>4</v>
       </c>
-      <c r="E146">
+      <c r="E159">
         <f t="shared" si="4"/>
         <v>156.79999999999998</v>
       </c>
-      <c r="F146">
+      <c r="F159">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G146" t="str">
+      <c r="G159" t="str">
         <f t="shared" si="6"/>
         <v>{157,64},</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B147">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B160">
         <v>79</v>
       </c>
-      <c r="C147">
+      <c r="C160">
         <v>15</v>
       </c>
-      <c r="D147">
+      <c r="D160">
         <v>4</v>
       </c>
-      <c r="E147">
+      <c r="E160">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="F147">
+      <c r="F160">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G147" t="str">
+      <c r="G160" t="str">
         <f t="shared" si="6"/>
         <v>{168,64},</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B148">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161">
         <v>80</v>
       </c>
-      <c r="C148">
+      <c r="C161">
         <v>16</v>
       </c>
-      <c r="D148">
+      <c r="D161">
         <v>4</v>
       </c>
-      <c r="E148">
+      <c r="E161">
         <f t="shared" si="4"/>
         <v>179.2</v>
       </c>
-      <c r="F148">
+      <c r="F161">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G148" t="str">
+      <c r="G161" t="str">
         <f t="shared" si="6"/>
         <v>{179,64},</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B149">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162">
         <v>81</v>
       </c>
-      <c r="C149">
+      <c r="C162">
         <v>17</v>
       </c>
-      <c r="D149">
+      <c r="D162">
         <v>4</v>
       </c>
-      <c r="E149">
+      <c r="E162">
         <f t="shared" si="4"/>
         <v>190.39999999999998</v>
       </c>
-      <c r="F149">
+      <c r="F162">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G149" t="str">
+      <c r="G162" t="str">
         <f t="shared" si="6"/>
         <v>{190,64},</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B150">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163">
         <v>82</v>
       </c>
-      <c r="C150">
+      <c r="C163">
         <v>19</v>
       </c>
-      <c r="D150">
+      <c r="D163">
         <v>4</v>
       </c>
-      <c r="E150">
+      <c r="E163">
         <f t="shared" si="4"/>
         <v>212.79999999999998</v>
       </c>
-      <c r="F150">
+      <c r="F163">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G150" t="str">
+      <c r="G163" t="str">
         <f t="shared" si="6"/>
         <v>{213,64},</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B151">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164">
         <v>83</v>
       </c>
-      <c r="C151">
+      <c r="C164">
         <v>20</v>
       </c>
-      <c r="D151">
+      <c r="D164">
         <v>4</v>
       </c>
-      <c r="E151">
+      <c r="E164">
         <f t="shared" si="4"/>
         <v>224</v>
       </c>
-      <c r="F151">
+      <c r="F164">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="G151" t="str">
+      <c r="G164" t="str">
         <f t="shared" si="6"/>
         <v>{224,64},</v>
       </c>
